--- a/Data/Test/y_test_negocio_nois.xlsx
+++ b/Data/Test/y_test_negocio_nois.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B761"/>
+  <dimension ref="A1:B764"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,47 +387,47 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>1573</v>
+        <v>1584</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>554</v>
+        <v>2778</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>1292</v>
+        <v>3858</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>310</v>
+        <v>2835</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>4970</v>
+        <v>1759</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>5502</v>
+        <v>1615</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>2568</v>
+        <v>3802</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>2247</v>
+        <v>2416</v>
       </c>
       <c r="B9">
         <v>-1</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>1517</v>
+        <v>1082</v>
       </c>
       <c r="B10">
         <v>-1</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>1963</v>
+        <v>1388</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>3450</v>
+        <v>3507</v>
       </c>
       <c r="B12">
         <v>-1</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>1621</v>
+        <v>3577</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>5883</v>
+        <v>1838</v>
       </c>
       <c r="B14">
         <v>-1</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>1625</v>
+        <v>869</v>
       </c>
       <c r="B15">
         <v>-1</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>4833</v>
+        <v>470</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -507,15 +507,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>5840</v>
+        <v>1106</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>3568</v>
+        <v>1118</v>
       </c>
       <c r="B18">
         <v>-1</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>2517</v>
+        <v>292</v>
       </c>
       <c r="B19">
         <v>-1</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>3452</v>
+        <v>344</v>
       </c>
       <c r="B20">
         <v>-1</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>1524</v>
+        <v>1044</v>
       </c>
       <c r="B21">
         <v>-1</v>
@@ -547,23 +547,23 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>5279</v>
+        <v>5259</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>4102</v>
+        <v>2645</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B24">
         <v>-1</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>460</v>
+        <v>5772</v>
       </c>
       <c r="B25">
         <v>-1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>2110</v>
+        <v>231</v>
       </c>
       <c r="B26">
         <v>-1</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>2475</v>
+        <v>4167</v>
       </c>
       <c r="B27">
         <v>-1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>4980</v>
+        <v>619</v>
       </c>
       <c r="B28">
         <v>-1</v>
@@ -603,31 +603,31 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>377</v>
+        <v>4200</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>1303</v>
+        <v>3076</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>744</v>
+        <v>1296</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>723</v>
+        <v>1279</v>
       </c>
       <c r="B32">
         <v>-1</v>
@@ -635,15 +635,15 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>683</v>
+        <v>495</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>3770</v>
+        <v>1559</v>
       </c>
       <c r="B34">
         <v>-1</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B35">
         <v>-1</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>4053</v>
+        <v>5622</v>
       </c>
       <c r="B36">
         <v>-1</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>3671</v>
+        <v>4255</v>
       </c>
       <c r="B37">
         <v>-1</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>572</v>
+        <v>4699</v>
       </c>
       <c r="B38">
         <v>-1</v>
@@ -683,15 +683,15 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>867</v>
+        <v>2221</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>5440</v>
+        <v>5012</v>
       </c>
       <c r="B40">
         <v>-1</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>5795</v>
+        <v>2039</v>
       </c>
       <c r="B41">
         <v>-1</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>1118</v>
+        <v>1652</v>
       </c>
       <c r="B42">
         <v>-1</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>4523</v>
+        <v>5746</v>
       </c>
       <c r="B43">
         <v>-1</v>
@@ -723,39 +723,39 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>3925</v>
+        <v>5951</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>3068</v>
+        <v>560</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>1391</v>
+        <v>3161</v>
       </c>
       <c r="B46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>5732</v>
+        <v>5227</v>
       </c>
       <c r="B47">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>424</v>
+        <v>5819</v>
       </c>
       <c r="B48">
         <v>-1</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>1205</v>
+        <v>2836</v>
       </c>
       <c r="B49">
         <v>-1</v>
@@ -771,15 +771,15 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>4811</v>
+        <v>2383</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>1767</v>
+        <v>5354</v>
       </c>
       <c r="B51">
         <v>-1</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>4238</v>
+        <v>3108</v>
       </c>
       <c r="B52">
         <v>-1</v>
@@ -795,15 +795,15 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>2385</v>
+        <v>2531</v>
       </c>
       <c r="B53">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>5093</v>
+        <v>5786</v>
       </c>
       <c r="B54">
         <v>-1</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>277</v>
+        <v>1798</v>
       </c>
       <c r="B55">
         <v>-1</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>5983</v>
+        <v>415</v>
       </c>
       <c r="B56">
         <v>-1</v>
@@ -827,23 +827,23 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>333</v>
+        <v>2984</v>
       </c>
       <c r="B57">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>2240</v>
+        <v>5900</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>2286</v>
+        <v>1244</v>
       </c>
       <c r="B59">
         <v>-1</v>
@@ -851,15 +851,15 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>3078</v>
+        <v>3945</v>
       </c>
       <c r="B60">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>3085</v>
+        <v>5479</v>
       </c>
       <c r="B61">
         <v>-1</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>3332</v>
+        <v>1146</v>
       </c>
       <c r="B62">
         <v>-1</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>1270</v>
+        <v>4546</v>
       </c>
       <c r="B63">
         <v>-1</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>3467</v>
+        <v>4915</v>
       </c>
       <c r="B64">
         <v>-1</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>5889</v>
+        <v>3849</v>
       </c>
       <c r="B65">
         <v>-1</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>1469</v>
+        <v>3328</v>
       </c>
       <c r="B66">
         <v>-1</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>3191</v>
+        <v>2720</v>
       </c>
       <c r="B67">
         <v>-1</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>3922</v>
+        <v>3621</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>995</v>
+        <v>2636</v>
       </c>
       <c r="B69">
         <v>-1</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>550</v>
+        <v>2907</v>
       </c>
       <c r="B70">
         <v>-1</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>5809</v>
+        <v>778</v>
       </c>
       <c r="B71">
         <v>-1</v>
@@ -947,15 +947,15 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>1515</v>
+        <v>4368</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>1873</v>
+        <v>3470</v>
       </c>
       <c r="B73">
         <v>-1</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>696</v>
+        <v>1855</v>
       </c>
       <c r="B74">
         <v>-1</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>1776</v>
+        <v>2974</v>
       </c>
       <c r="B75">
         <v>-1</v>
@@ -979,23 +979,23 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>3007</v>
+        <v>657</v>
       </c>
       <c r="B76">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>3296</v>
+        <v>3596</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>2651</v>
+        <v>6161</v>
       </c>
       <c r="B78">
         <v>-1</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>2032</v>
+        <v>111</v>
       </c>
       <c r="B79">
         <v>-1</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>4669</v>
+        <v>1539</v>
       </c>
       <c r="B80">
         <v>-1</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>4478</v>
+        <v>4811</v>
       </c>
       <c r="B81">
         <v>-1</v>
@@ -1027,15 +1027,15 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>1566</v>
+        <v>1979</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>2354</v>
+        <v>906</v>
       </c>
       <c r="B83">
         <v>-1</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>3218</v>
+        <v>2536</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1051,23 +1051,23 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>1022</v>
+        <v>3905</v>
       </c>
       <c r="B85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>2040</v>
+        <v>2244</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>3381</v>
+        <v>3712</v>
       </c>
       <c r="B87">
         <v>-1</v>
@@ -1075,15 +1075,15 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>3704</v>
+        <v>506</v>
       </c>
       <c r="B88">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>3969</v>
+        <v>3547</v>
       </c>
       <c r="B89">
         <v>-1</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>5438</v>
+        <v>1322</v>
       </c>
       <c r="B90">
         <v>-1</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>2922</v>
+        <v>3794</v>
       </c>
       <c r="B91">
         <v>-1</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>4655</v>
+        <v>2042</v>
       </c>
       <c r="B92">
         <v>-1</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>2343</v>
+        <v>6176</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>490</v>
+        <v>1198</v>
       </c>
       <c r="B94">
         <v>-1</v>
@@ -1131,23 +1131,23 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>763</v>
+        <v>2480</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>2649</v>
+        <v>5100</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>4699</v>
+        <v>2856</v>
       </c>
       <c r="B97">
         <v>-1</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>5049</v>
+        <v>2574</v>
       </c>
       <c r="B98">
         <v>-1</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>5358</v>
+        <v>3204</v>
       </c>
       <c r="B99">
         <v>-1</v>
@@ -1171,15 +1171,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>54</v>
+        <v>3181</v>
       </c>
       <c r="B100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>5193</v>
+        <v>1998</v>
       </c>
       <c r="B101">
         <v>-1</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>5571</v>
+        <v>5523</v>
       </c>
       <c r="B102">
         <v>-1</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>1968</v>
+        <v>5494</v>
       </c>
       <c r="B103">
         <v>-1</v>
@@ -1203,15 +1203,15 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>2233</v>
+        <v>5537</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>5457</v>
+        <v>3092</v>
       </c>
       <c r="B105">
         <v>-1</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>5833</v>
+        <v>499</v>
       </c>
       <c r="B106">
         <v>-1</v>
@@ -1227,15 +1227,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>403</v>
+        <v>4094</v>
       </c>
       <c r="B107">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>4594</v>
+        <v>1601</v>
       </c>
       <c r="B108">
         <v>-1</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>4967</v>
+        <v>4633</v>
       </c>
       <c r="B109">
         <v>-1</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>1654</v>
+        <v>2477</v>
       </c>
       <c r="B110">
         <v>-1</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>6074</v>
+        <v>1573</v>
       </c>
       <c r="B111">
         <v>-1</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>1981</v>
+        <v>54</v>
       </c>
       <c r="B112">
         <v>-1</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>1206</v>
+        <v>3976</v>
       </c>
       <c r="B113">
         <v>-1</v>
@@ -1283,15 +1283,15 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>4873</v>
+        <v>2766</v>
       </c>
       <c r="B114">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>24</v>
+        <v>5127</v>
       </c>
       <c r="B115">
         <v>-1</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>975</v>
+        <v>1414</v>
       </c>
       <c r="B116">
         <v>-1</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>1551</v>
+        <v>762</v>
       </c>
       <c r="B117">
         <v>-1</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>876</v>
+        <v>1983</v>
       </c>
       <c r="B118">
         <v>-1</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>2216</v>
+        <v>872</v>
       </c>
       <c r="B119">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>5068</v>
+        <v>2961</v>
       </c>
       <c r="B120">
         <v>-1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>291</v>
+        <v>1519</v>
       </c>
       <c r="B121">
         <v>-1</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>3934</v>
+        <v>1303</v>
       </c>
       <c r="B122">
         <v>-1</v>
@@ -1355,23 +1355,23 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>3574</v>
+        <v>574</v>
       </c>
       <c r="B123">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>720</v>
+        <v>5247</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>5349</v>
+        <v>3294</v>
       </c>
       <c r="B125">
         <v>-1</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>4424</v>
+        <v>2690</v>
       </c>
       <c r="B126">
         <v>-1</v>
@@ -1387,23 +1387,23 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>2898</v>
+        <v>5307</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>2009</v>
+        <v>24</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>3139</v>
+        <v>4111</v>
       </c>
       <c r="B129">
         <v>-1</v>
@@ -1411,15 +1411,15 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>499</v>
+        <v>4962</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>191</v>
+        <v>1708</v>
       </c>
       <c r="B131">
         <v>-1</v>
@@ -1427,23 +1427,23 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>5715</v>
+        <v>5044</v>
       </c>
       <c r="B132">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>230</v>
+        <v>6073</v>
       </c>
       <c r="B133">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>6144</v>
+        <v>2350</v>
       </c>
       <c r="B134">
         <v>-1</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>5104</v>
+        <v>192</v>
       </c>
       <c r="B135">
         <v>-1</v>
@@ -1459,15 +1459,15 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>1706</v>
+        <v>2236</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>1583</v>
+        <v>5752</v>
       </c>
       <c r="B137">
         <v>-1</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>5831</v>
+        <v>5927</v>
       </c>
       <c r="B138">
         <v>-1</v>
@@ -1483,15 +1483,15 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>28</v>
+        <v>1524</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>1975</v>
+        <v>5363</v>
       </c>
       <c r="B140">
         <v>-1</v>
@@ -1499,15 +1499,15 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>5485</v>
+        <v>5860</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>3948</v>
+        <v>3061</v>
       </c>
       <c r="B142">
         <v>-1</v>
@@ -1515,23 +1515,23 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>2555</v>
+        <v>5854</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>343</v>
+        <v>28</v>
       </c>
       <c r="B144">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>3800</v>
+        <v>1475</v>
       </c>
       <c r="B145">
         <v>-1</v>
@@ -1539,23 +1539,23 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>1276</v>
+        <v>5643</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>3595</v>
+        <v>3027</v>
       </c>
       <c r="B147">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>3492</v>
+        <v>3262</v>
       </c>
       <c r="B148">
         <v>-1</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>2613</v>
+        <v>1617</v>
       </c>
       <c r="B149">
         <v>-1</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>5367</v>
+        <v>698</v>
       </c>
       <c r="B150">
         <v>-1</v>
@@ -1579,15 +1579,15 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>3834</v>
+        <v>2970</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>1157</v>
+        <v>459</v>
       </c>
       <c r="B152">
         <v>-1</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>1930</v>
+        <v>1314</v>
       </c>
       <c r="B153">
         <v>-1</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>4569</v>
+        <v>1639</v>
       </c>
       <c r="B154">
         <v>-1</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>4156</v>
+        <v>3054</v>
       </c>
       <c r="B155">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>4580</v>
+        <v>1024</v>
       </c>
       <c r="B156">
         <v>-1</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>413</v>
+        <v>3611</v>
       </c>
       <c r="B157">
         <v>-1</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>3273</v>
+        <v>3443</v>
       </c>
       <c r="B158">
         <v>-1</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>178</v>
+        <v>1689</v>
       </c>
       <c r="B159">
         <v>-1</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>716</v>
+        <v>4372</v>
       </c>
       <c r="B160">
         <v>-1</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>2601</v>
+        <v>1564</v>
       </c>
       <c r="B161">
         <v>-1</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>3325</v>
+        <v>5954</v>
       </c>
       <c r="B162">
         <v>-1</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>2048</v>
+        <v>278</v>
       </c>
       <c r="B163">
         <v>-1</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>5913</v>
+        <v>179</v>
       </c>
       <c r="B164">
         <v>-1</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>81</v>
+        <v>691</v>
       </c>
       <c r="B165">
         <v>-1</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>3784</v>
+        <v>5391</v>
       </c>
       <c r="B166">
         <v>-1</v>
@@ -1707,39 +1707,39 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>2217</v>
+        <v>1357</v>
       </c>
       <c r="B167">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>3586</v>
+        <v>878</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>5186</v>
+        <v>681</v>
       </c>
       <c r="B169">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>1615</v>
+        <v>836</v>
       </c>
       <c r="B171">
         <v>-1</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>636</v>
+        <v>2235</v>
       </c>
       <c r="B172">
         <v>-1</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>5077</v>
+        <v>1507</v>
       </c>
       <c r="B173">
         <v>-1</v>
@@ -1763,15 +1763,15 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>2382</v>
+        <v>4559</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>4893</v>
+        <v>3699</v>
       </c>
       <c r="B175">
         <v>-1</v>
@@ -1779,15 +1779,15 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>468</v>
+        <v>1694</v>
       </c>
       <c r="B176">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>6148</v>
+        <v>5249</v>
       </c>
       <c r="B177">
         <v>-1</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>2204</v>
+        <v>405</v>
       </c>
       <c r="B178">
         <v>-1</v>
@@ -1803,15 +1803,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>3506</v>
+        <v>4206</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>2292</v>
+        <v>1906</v>
       </c>
       <c r="B180">
         <v>-1</v>
@@ -1819,15 +1819,15 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>493</v>
+        <v>2428</v>
       </c>
       <c r="B181">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>4830</v>
+        <v>4775</v>
       </c>
       <c r="B182">
         <v>-1</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>4676</v>
+        <v>556</v>
       </c>
       <c r="B183">
         <v>-1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>82</v>
+        <v>1226</v>
       </c>
       <c r="B184">
         <v>-1</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>2505</v>
+        <v>5371</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -1859,31 +1859,31 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>46</v>
+        <v>1632</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>2442</v>
+        <v>2671</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>1060</v>
+        <v>2994</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>2166</v>
+        <v>311</v>
       </c>
       <c r="B189">
         <v>-1</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>679</v>
+        <v>83</v>
       </c>
       <c r="B190">
         <v>-1</v>
@@ -1899,63 +1899,63 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>4109</v>
+        <v>3923</v>
       </c>
       <c r="B191">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>3439</v>
+        <v>46</v>
       </c>
       <c r="B192">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>1561</v>
+        <v>2076</v>
       </c>
       <c r="B193">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>2502</v>
+        <v>3698</v>
       </c>
       <c r="B194">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>2519</v>
+        <v>4798</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>3266</v>
+        <v>3588</v>
       </c>
       <c r="B196">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>2725</v>
+        <v>6141</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>2686</v>
+        <v>798</v>
       </c>
       <c r="B198">
         <v>-1</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>648</v>
+        <v>2051</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1971,23 +1971,23 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>2635</v>
+        <v>3581</v>
       </c>
       <c r="B200">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>3701</v>
+        <v>1575</v>
       </c>
       <c r="B201">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>1130</v>
+        <v>2195</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>1141</v>
+        <v>4272</v>
       </c>
       <c r="B203">
         <v>-1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>6116</v>
+        <v>379</v>
       </c>
       <c r="B204">
         <v>-1</v>
@@ -2011,31 +2011,31 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>510</v>
+        <v>1787</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>834</v>
+        <v>359</v>
       </c>
       <c r="B206">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>3464</v>
+        <v>338</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>3981</v>
+        <v>3195</v>
       </c>
       <c r="B208">
         <v>-1</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>5331</v>
+        <v>1194</v>
       </c>
       <c r="B209">
         <v>-1</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>5658</v>
+        <v>1935</v>
       </c>
       <c r="B210">
         <v>-1</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>1691</v>
+        <v>1727</v>
       </c>
       <c r="B211">
         <v>-1</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>3353</v>
+        <v>5553</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="B213">
         <v>-1</v>
@@ -2083,15 +2083,15 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>3187</v>
+        <v>1080</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>2814</v>
+        <v>4722</v>
       </c>
       <c r="B215">
         <v>-1</v>
@@ -2099,15 +2099,15 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>3346</v>
+        <v>5082</v>
       </c>
       <c r="B216">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>5823</v>
+        <v>5681</v>
       </c>
       <c r="B217">
         <v>-1</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>5691</v>
+        <v>4457</v>
       </c>
       <c r="B218">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>4110</v>
+        <v>5784</v>
       </c>
       <c r="B219">
         <v>-1</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>1187</v>
+        <v>637</v>
       </c>
       <c r="B220">
         <v>-1</v>
@@ -2139,31 +2139,31 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>5943</v>
+        <v>5634</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>4978</v>
+        <v>500</v>
       </c>
       <c r="B222">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>755</v>
+        <v>4789</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>242</v>
+        <v>1078</v>
       </c>
       <c r="B224">
         <v>-1</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>4295</v>
+        <v>2978</v>
       </c>
       <c r="B225">
         <v>-1</v>
@@ -2179,15 +2179,15 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>3334</v>
+        <v>3170</v>
       </c>
       <c r="B226">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>322</v>
+        <v>1207</v>
       </c>
       <c r="B227">
         <v>-1</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>5226</v>
+        <v>1933</v>
       </c>
       <c r="B228">
         <v>-1</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>56</v>
+        <v>3994</v>
       </c>
       <c r="B229">
         <v>-1</v>
@@ -2211,23 +2211,23 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>4233</v>
+        <v>1342</v>
       </c>
       <c r="B230">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>5308</v>
+        <v>4880</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>5936</v>
+        <v>243</v>
       </c>
       <c r="B232">
         <v>-1</v>
@@ -2235,15 +2235,15 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>2659</v>
+        <v>3939</v>
       </c>
       <c r="B233">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>1069</v>
+        <v>5434</v>
       </c>
       <c r="B234">
         <v>-1</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>3503</v>
+        <v>323</v>
       </c>
       <c r="B235">
         <v>-1</v>
@@ -2259,15 +2259,15 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>2080</v>
+        <v>56</v>
       </c>
       <c r="B237">
         <v>-1</v>
@@ -2275,31 +2275,31 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>3788</v>
+        <v>3781</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>3792</v>
+        <v>2405</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>3829</v>
+        <v>6032</v>
       </c>
       <c r="B240">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>3502</v>
+        <v>5716</v>
       </c>
       <c r="B241">
         <v>-1</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>2561</v>
+        <v>426</v>
       </c>
       <c r="B242">
         <v>-1</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>855</v>
+        <v>3584</v>
       </c>
       <c r="B243">
         <v>-1</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>2225</v>
+        <v>3352</v>
       </c>
       <c r="B244">
         <v>-1</v>
@@ -2331,15 +2331,15 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>2229</v>
+        <v>2832</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>3205</v>
+        <v>2227</v>
       </c>
       <c r="B246">
         <v>-1</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>1081</v>
+        <v>5213</v>
       </c>
       <c r="B247">
         <v>-1</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>5622</v>
+        <v>4178</v>
       </c>
       <c r="B248">
         <v>-1</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>1207</v>
+        <v>724</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2371,31 +2371,31 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>3345</v>
+        <v>3324</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>2882</v>
+        <v>5738</v>
       </c>
       <c r="B251">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>1238</v>
+        <v>6027</v>
       </c>
       <c r="B252">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>3462</v>
+        <v>2245</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>209</v>
+        <v>1678</v>
       </c>
       <c r="B254">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>5177</v>
+        <v>1061</v>
       </c>
       <c r="B255">
         <v>-1</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>110</v>
+        <v>3207</v>
       </c>
       <c r="B256">
         <v>-1</v>
@@ -2427,15 +2427,15 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>2155</v>
+        <v>649</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>1030</v>
+        <v>5193</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>5237</v>
+        <v>3303</v>
       </c>
       <c r="B259">
         <v>-1</v>
@@ -2451,23 +2451,23 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>4029</v>
+        <v>5217</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>2171</v>
+        <v>210</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>2720</v>
+        <v>6115</v>
       </c>
       <c r="B262">
         <v>-1</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>852</v>
+        <v>3773</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>2015</v>
+        <v>3040</v>
       </c>
       <c r="B264">
         <v>-1</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>2546</v>
+        <v>2014</v>
       </c>
       <c r="B265">
         <v>-1</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>1716</v>
+        <v>3788</v>
       </c>
       <c r="B266">
         <v>-1</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>1290</v>
+        <v>2903</v>
       </c>
       <c r="B267">
         <v>-1</v>
@@ -2515,23 +2515,23 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>1586</v>
+        <v>492</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>2401</v>
+        <v>4405</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>3165</v>
+        <v>3345</v>
       </c>
       <c r="B270">
         <v>-1</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>262</v>
+        <v>3815</v>
       </c>
       <c r="B271">
         <v>-1</v>
@@ -2547,15 +2547,15 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>4378</v>
+        <v>2921</v>
       </c>
       <c r="B272">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>3565</v>
+        <v>3311</v>
       </c>
       <c r="B273">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>2024</v>
+        <v>1719</v>
       </c>
       <c r="B274">
         <v>-1</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>2066</v>
+        <v>3186</v>
       </c>
       <c r="B275">
         <v>-1</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="B276">
         <v>-1</v>
@@ -2587,31 +2587,31 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>21</v>
+        <v>5855</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>2451</v>
+        <v>2246</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>4119</v>
+        <v>2593</v>
       </c>
       <c r="B279">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>3051</v>
+        <v>3004</v>
       </c>
       <c r="B280">
         <v>-1</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>1342</v>
+        <v>301</v>
       </c>
       <c r="B281">
         <v>-1</v>
@@ -2627,15 +2627,15 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>689</v>
+        <v>21</v>
       </c>
       <c r="B282">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>3582</v>
+        <v>995</v>
       </c>
       <c r="B283">
         <v>-1</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>2875</v>
+        <v>550</v>
       </c>
       <c r="B284">
         <v>-1</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>374</v>
+        <v>3385</v>
       </c>
       <c r="B285">
         <v>-1</v>
@@ -2659,15 +2659,15 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>268</v>
+        <v>656</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>1450</v>
+        <v>3167</v>
       </c>
       <c r="B287">
         <v>-1</v>
@@ -2675,15 +2675,15 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>1355</v>
+        <v>1443</v>
       </c>
       <c r="B288">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>3558</v>
+        <v>6101</v>
       </c>
       <c r="B289">
         <v>-1</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>1198</v>
+        <v>376</v>
       </c>
       <c r="B290">
         <v>-1</v>
@@ -2699,15 +2699,15 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>5495</v>
+        <v>269</v>
       </c>
       <c r="B291">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>1719</v>
+        <v>2420</v>
       </c>
       <c r="B292">
         <v>-1</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>3873</v>
+        <v>3309</v>
       </c>
       <c r="B293">
         <v>-1</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>2268</v>
+        <v>4597</v>
       </c>
       <c r="B294">
         <v>-1</v>
@@ -2731,23 +2731,23 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>3071</v>
+        <v>1208</v>
       </c>
       <c r="B295">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>1536</v>
+        <v>3047</v>
       </c>
       <c r="B296">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>1537</v>
+        <v>5458</v>
       </c>
       <c r="B297">
         <v>-1</v>
@@ -2755,15 +2755,15 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>1413</v>
+        <v>1824</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>1042</v>
+        <v>2518</v>
       </c>
       <c r="B299">
         <v>-1</v>
@@ -2771,15 +2771,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>1080</v>
+        <v>3091</v>
       </c>
       <c r="B300">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>4920</v>
+        <v>1189</v>
       </c>
       <c r="B301">
         <v>-1</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>4009</v>
+        <v>1159</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>1630</v>
+        <v>1419</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>2251</v>
+        <v>2072</v>
       </c>
       <c r="B304">
         <v>-1</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>500</v>
+        <v>854</v>
       </c>
       <c r="B305">
         <v>-1</v>
@@ -2819,15 +2819,15 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>2484</v>
+        <v>2577</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>1371</v>
+        <v>2606</v>
       </c>
       <c r="B307">
         <v>-1</v>
@@ -2835,15 +2835,15 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>3961</v>
+        <v>2459</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="B309">
         <v>-1</v>
@@ -2851,15 +2851,15 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>5211</v>
+        <v>3251</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>287</v>
+        <v>3473</v>
       </c>
       <c r="B311">
         <v>-1</v>
@@ -2867,15 +2867,15 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>4550</v>
+        <v>5755</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>5597</v>
+        <v>2541</v>
       </c>
       <c r="B313">
         <v>-1</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>2771</v>
+        <v>2007</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>5762</v>
+        <v>73</v>
       </c>
       <c r="B315">
         <v>-1</v>
@@ -2899,15 +2899,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>217</v>
+        <v>5234</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>3008</v>
+        <v>288</v>
       </c>
       <c r="B317">
         <v>-1</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>3044</v>
+        <v>6009</v>
       </c>
       <c r="B318">
         <v>-1</v>
@@ -2923,23 +2923,23 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>483</v>
+        <v>1173</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>418</v>
+        <v>3826</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>2117</v>
+        <v>2969</v>
       </c>
       <c r="B321">
         <v>-1</v>
@@ -2947,15 +2947,15 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>5127</v>
+        <v>218</v>
       </c>
       <c r="B322">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>2778</v>
+        <v>1201</v>
       </c>
       <c r="B323">
         <v>-1</v>
@@ -2963,15 +2963,15 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>3780</v>
+        <v>5550</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>1191</v>
+        <v>485</v>
       </c>
       <c r="B325">
         <v>-1</v>
@@ -2979,31 +2979,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>4634</v>
+        <v>419</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>224</v>
+        <v>3314</v>
       </c>
       <c r="B327">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>5126</v>
+        <v>5935</v>
       </c>
       <c r="B328">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>1613</v>
+        <v>771</v>
       </c>
       <c r="B329">
         <v>-1</v>
@@ -3011,15 +3011,15 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>6036</v>
+        <v>3500</v>
       </c>
       <c r="B330">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>558</v>
+        <v>3779</v>
       </c>
       <c r="B331">
         <v>-1</v>
@@ -3027,15 +3027,15 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>925</v>
+        <v>1778</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>1693</v>
+        <v>225</v>
       </c>
       <c r="B333">
         <v>-1</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>4522</v>
+        <v>5526</v>
       </c>
       <c r="B334">
         <v>-1</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>4182</v>
+        <v>4652</v>
       </c>
       <c r="B335">
         <v>-1</v>
@@ -3059,15 +3059,15 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>1224</v>
+        <v>2047</v>
       </c>
       <c r="B336">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>1183</v>
+        <v>1747</v>
       </c>
       <c r="B337">
         <v>-1</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>394</v>
+        <v>2308</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>2138</v>
+        <v>4337</v>
       </c>
       <c r="B339">
         <v>-1</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>3686</v>
+        <v>2228</v>
       </c>
       <c r="B340">
         <v>-1</v>
@@ -3099,15 +3099,15 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>3678</v>
+        <v>4203</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>4091</v>
+        <v>2976</v>
       </c>
       <c r="B342">
         <v>-1</v>
@@ -3115,15 +3115,15 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>6052</v>
+        <v>4145</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>436</v>
+        <v>2707</v>
       </c>
       <c r="B344">
         <v>-1</v>
@@ -3131,15 +3131,15 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>3181</v>
+        <v>396</v>
       </c>
       <c r="B345">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>4832</v>
+        <v>3801</v>
       </c>
       <c r="B346">
         <v>-1</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>3861</v>
+        <v>1789</v>
       </c>
       <c r="B347">
         <v>-1</v>
@@ -3155,15 +3155,15 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>469</v>
+        <v>3569</v>
       </c>
       <c r="B348">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>2837</v>
+        <v>3230</v>
       </c>
       <c r="B349">
         <v>-1</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>2609</v>
+        <v>3237</v>
       </c>
       <c r="B350">
         <v>-1</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>3912</v>
+        <v>438</v>
       </c>
       <c r="B351">
         <v>-1</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>660</v>
+        <v>5623</v>
       </c>
       <c r="B352">
         <v>-1</v>
@@ -3195,23 +3195,23 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>707</v>
+        <v>822</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>2563</v>
+        <v>4496</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>4342</v>
+        <v>471</v>
       </c>
       <c r="B355">
         <v>-1</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>5666</v>
+        <v>1710</v>
       </c>
       <c r="B356">
         <v>-1</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>1418</v>
+        <v>1277</v>
       </c>
       <c r="B357">
         <v>-1</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>4857</v>
+        <v>832</v>
       </c>
       <c r="B358">
         <v>-1</v>
@@ -3243,39 +3243,39 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>5256</v>
+        <v>1622</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>3930</v>
+        <v>4132</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>4152</v>
+        <v>722</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>5927</v>
+        <v>2002</v>
       </c>
       <c r="B362">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>2836</v>
+        <v>2662</v>
       </c>
       <c r="B363">
         <v>-1</v>
@@ -3283,15 +3283,15 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>4341</v>
+        <v>3843</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>830</v>
+        <v>3933</v>
       </c>
       <c r="B365">
         <v>-1</v>
@@ -3299,23 +3299,23 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>655</v>
+        <v>3075</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>89</v>
+        <v>4870</v>
       </c>
       <c r="B367">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>119</v>
+        <v>1890</v>
       </c>
       <c r="B368">
         <v>-1</v>
@@ -3323,23 +3323,23 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>2997</v>
+        <v>1370</v>
       </c>
       <c r="B369">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>3963</v>
+        <v>4172</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>776</v>
+        <v>4855</v>
       </c>
       <c r="B371">
         <v>-1</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>3434</v>
+        <v>3063</v>
       </c>
       <c r="B372">
         <v>-1</v>
@@ -3355,15 +3355,15 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>4585</v>
+        <v>4847</v>
       </c>
       <c r="B373">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>4129</v>
+        <v>2568</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -3371,15 +3371,15 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>3143</v>
+        <v>1239</v>
       </c>
       <c r="B375">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>2901</v>
+        <v>90</v>
       </c>
       <c r="B376">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>3613</v>
+        <v>120</v>
       </c>
       <c r="B377">
         <v>-1</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>4775</v>
+        <v>4186</v>
       </c>
       <c r="B378">
         <v>-1</v>
@@ -3403,15 +3403,15 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>3725</v>
+        <v>5601</v>
       </c>
       <c r="B379">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>3096</v>
+        <v>5744</v>
       </c>
       <c r="B380">
         <v>-1</v>
@@ -3419,15 +3419,15 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>1329</v>
+        <v>3721</v>
       </c>
       <c r="B381">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>769</v>
+        <v>1954</v>
       </c>
       <c r="B382">
         <v>-1</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>821</v>
+        <v>2875</v>
       </c>
       <c r="B383">
         <v>-1</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>3233</v>
+        <v>1594</v>
       </c>
       <c r="B384">
         <v>-1</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>195</v>
+        <v>1429</v>
       </c>
       <c r="B385">
         <v>-1</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>489</v>
+        <v>757</v>
       </c>
       <c r="B386">
         <v>-1</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>5902</v>
+        <v>1071</v>
       </c>
       <c r="B387">
         <v>-1</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>478</v>
+        <v>3148</v>
       </c>
       <c r="B388">
         <v>-1</v>
@@ -3483,15 +3483,15 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>2239</v>
+        <v>5519</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>5523</v>
+        <v>5960</v>
       </c>
       <c r="B390">
         <v>-1</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>3519</v>
+        <v>727</v>
       </c>
       <c r="B391">
         <v>-1</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>2482</v>
+        <v>1721</v>
       </c>
       <c r="B392">
         <v>-1</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>5748</v>
+        <v>3253</v>
       </c>
       <c r="B393">
         <v>-1</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>3473</v>
+        <v>196</v>
       </c>
       <c r="B394">
         <v>-1</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>71</v>
+        <v>491</v>
       </c>
       <c r="B395">
         <v>-1</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>690</v>
+        <v>2171</v>
       </c>
       <c r="B396">
         <v>-1</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>3186</v>
+        <v>480</v>
       </c>
       <c r="B397">
         <v>-1</v>
@@ -3555,15 +3555,15 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>1429</v>
+        <v>2312</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>2813</v>
+        <v>1620</v>
       </c>
       <c r="B399">
         <v>-1</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>993</v>
+        <v>2539</v>
       </c>
       <c r="B400">
         <v>-1</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>3816</v>
+        <v>4853</v>
       </c>
       <c r="B401">
         <v>-1</v>
@@ -3587,23 +3587,23 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>1753</v>
+        <v>1015</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>612</v>
+        <v>2803</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B404">
         <v>-1</v>
@@ -3611,15 +3611,15 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>2715</v>
+        <v>3000</v>
       </c>
       <c r="B405">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>320</v>
+        <v>2110</v>
       </c>
       <c r="B406">
         <v>-1</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>2078</v>
+        <v>5201</v>
       </c>
       <c r="B407">
         <v>-1</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>2858</v>
+        <v>4129</v>
       </c>
       <c r="B408">
         <v>-1</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>5925</v>
+        <v>3628</v>
       </c>
       <c r="B409">
         <v>-1</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>5679</v>
+        <v>3847</v>
       </c>
       <c r="B410">
         <v>-1</v>
@@ -3659,15 +3659,15 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>95</v>
+        <v>5967</v>
       </c>
       <c r="B411">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>727</v>
+        <v>612</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>575</v>
+        <v>50</v>
       </c>
       <c r="B413">
         <v>-1</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>2060</v>
+        <v>684</v>
       </c>
       <c r="B414">
         <v>-1</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>2961</v>
+        <v>321</v>
       </c>
       <c r="B415">
         <v>-1</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>2491</v>
+        <v>2093</v>
       </c>
       <c r="B416">
         <v>-1</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>3285</v>
+        <v>1122</v>
       </c>
       <c r="B417">
         <v>-1</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>796</v>
+        <v>5950</v>
       </c>
       <c r="B418">
         <v>-1</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
-        <v>240</v>
+        <v>1836</v>
       </c>
       <c r="B419">
         <v>-1</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1">
-        <v>2201</v>
+        <v>96</v>
       </c>
       <c r="B420">
         <v>-1</v>
@@ -3739,15 +3739,15 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1">
-        <v>3841</v>
+        <v>3202</v>
       </c>
       <c r="B421">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1">
-        <v>2198</v>
+        <v>576</v>
       </c>
       <c r="B422">
         <v>-1</v>
@@ -3755,15 +3755,15 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1">
-        <v>306</v>
+        <v>1359</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1">
-        <v>2356</v>
+        <v>2648</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="1">
-        <v>4060</v>
+        <v>2614</v>
       </c>
       <c r="B425">
         <v>-1</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="1">
-        <v>2100</v>
+        <v>5277</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="1">
-        <v>4583</v>
+        <v>3305</v>
       </c>
       <c r="B427">
         <v>-1</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="1">
-        <v>2789</v>
+        <v>5242</v>
       </c>
       <c r="B428">
         <v>-1</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="1">
-        <v>2132</v>
+        <v>241</v>
       </c>
       <c r="B429">
         <v>-1</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="1">
-        <v>4823</v>
+        <v>6086</v>
       </c>
       <c r="B430">
         <v>-1</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="1">
-        <v>455</v>
+        <v>5085</v>
       </c>
       <c r="B431">
         <v>-1</v>
@@ -3827,23 +3827,23 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="1">
-        <v>255</v>
+        <v>5673</v>
       </c>
       <c r="B432">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="1">
-        <v>870</v>
+        <v>307</v>
       </c>
       <c r="B433">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="1">
-        <v>3887</v>
+        <v>2286</v>
       </c>
       <c r="B434">
         <v>-1</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="1">
-        <v>1782</v>
+        <v>5578</v>
       </c>
       <c r="B435">
         <v>-1</v>
@@ -3859,23 +3859,23 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="1">
-        <v>3712</v>
+        <v>4427</v>
       </c>
       <c r="B436">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="1">
-        <v>3762</v>
+        <v>5785</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="1">
-        <v>1705</v>
+        <v>2809</v>
       </c>
       <c r="B438">
         <v>-1</v>
@@ -3883,15 +3883,15 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="1">
-        <v>1704</v>
+        <v>1657</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="1">
-        <v>4074</v>
+        <v>717</v>
       </c>
       <c r="B440">
         <v>-1</v>
@@ -3899,15 +3899,15 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="1">
-        <v>2962</v>
+        <v>692</v>
       </c>
       <c r="B441">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="1">
-        <v>3064</v>
+        <v>456</v>
       </c>
       <c r="B442">
         <v>-1</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="1">
-        <v>4695</v>
+        <v>256</v>
       </c>
       <c r="B443">
         <v>-1</v>
@@ -3923,15 +3923,15 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="1">
-        <v>2160</v>
+        <v>746</v>
       </c>
       <c r="B444">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="1">
-        <v>1239</v>
+        <v>2043</v>
       </c>
       <c r="B445">
         <v>-1</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="1">
-        <v>2657</v>
+        <v>5714</v>
       </c>
       <c r="B446">
         <v>-1</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="1">
-        <v>3338</v>
+        <v>5478</v>
       </c>
       <c r="B447">
         <v>-1</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="1">
-        <v>1261</v>
+        <v>1486</v>
       </c>
       <c r="B448">
         <v>-1</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="1">
-        <v>308</v>
+        <v>3422</v>
       </c>
       <c r="B449">
         <v>-1</v>
@@ -3971,15 +3971,15 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="1">
-        <v>2871</v>
+        <v>2368</v>
       </c>
       <c r="B450">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="1">
-        <v>1015</v>
+        <v>4096</v>
       </c>
       <c r="B451">
         <v>-1</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="1">
-        <v>4850</v>
+        <v>2046</v>
       </c>
       <c r="B452">
         <v>-1</v>
@@ -3995,15 +3995,15 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="1">
-        <v>5499</v>
+        <v>3485</v>
       </c>
       <c r="B453">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="1">
-        <v>49</v>
+        <v>6095</v>
       </c>
       <c r="B454">
         <v>-1</v>
@@ -4011,15 +4011,15 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="1">
-        <v>4610</v>
+        <v>5485</v>
       </c>
       <c r="B455">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="1">
-        <v>3226</v>
+        <v>914</v>
       </c>
       <c r="B456">
         <v>-1</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="1">
-        <v>4431</v>
+        <v>2678</v>
       </c>
       <c r="B457">
         <v>-1</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="1">
-        <v>5692</v>
+        <v>3358</v>
       </c>
       <c r="B458">
         <v>-1</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="1">
-        <v>3554</v>
+        <v>4772</v>
       </c>
       <c r="B459">
         <v>-1</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="1">
-        <v>5497</v>
+        <v>309</v>
       </c>
       <c r="B460">
         <v>-1</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="1">
-        <v>4364</v>
+        <v>708</v>
       </c>
       <c r="B461">
         <v>-1</v>
@@ -4067,15 +4067,15 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="1">
-        <v>6049</v>
+        <v>2145</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="1">
-        <v>4371</v>
+        <v>2762</v>
       </c>
       <c r="B463">
         <v>-1</v>
@@ -4083,15 +4083,15 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="1">
-        <v>1188</v>
+        <v>2867</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="1">
-        <v>4774</v>
+        <v>1471</v>
       </c>
       <c r="B465">
         <v>-1</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="1">
-        <v>1673</v>
+        <v>49</v>
       </c>
       <c r="B466">
         <v>-1</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="1">
-        <v>2564</v>
+        <v>3235</v>
       </c>
       <c r="B467">
         <v>-1</v>
@@ -4115,15 +4115,15 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="1">
-        <v>2340</v>
+        <v>5816</v>
       </c>
       <c r="B468">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="1">
-        <v>1785</v>
+        <v>3260</v>
       </c>
       <c r="B469">
         <v>-1</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="1">
-        <v>646</v>
+        <v>997</v>
       </c>
       <c r="B470">
         <v>-1</v>
@@ -4139,15 +4139,15 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="1">
-        <v>2956</v>
+        <v>3573</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="1">
-        <v>1653</v>
+        <v>5520</v>
       </c>
       <c r="B472">
         <v>-1</v>
@@ -4155,15 +4155,15 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="1">
-        <v>5942</v>
+        <v>5209</v>
       </c>
       <c r="B473">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="1">
-        <v>4321</v>
+        <v>2204</v>
       </c>
       <c r="B474">
         <v>-1</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="1">
-        <v>1243</v>
+        <v>4475</v>
       </c>
       <c r="B475">
         <v>-1</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="1">
-        <v>5014</v>
+        <v>3724</v>
       </c>
       <c r="B476">
         <v>-1</v>
@@ -4187,15 +4187,15 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="1">
-        <v>3359</v>
+        <v>1865</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="1">
-        <v>1651</v>
+        <v>3434</v>
       </c>
       <c r="B478">
         <v>-1</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="1">
-        <v>2194</v>
+        <v>3983</v>
       </c>
       <c r="B479">
         <v>-1</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="1">
-        <v>6017</v>
+        <v>2202</v>
       </c>
       <c r="B480">
         <v>-1</v>
@@ -4219,15 +4219,15 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="1">
-        <v>2043</v>
+        <v>6096</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="1">
-        <v>1661</v>
+        <v>647</v>
       </c>
       <c r="B482">
         <v>-1</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="1">
-        <v>2164</v>
+        <v>2826</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -4243,15 +4243,15 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="1">
-        <v>3088</v>
+        <v>3970</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="1">
-        <v>5863</v>
+        <v>1206</v>
       </c>
       <c r="B485">
         <v>-1</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="1">
-        <v>125</v>
+        <v>3771</v>
       </c>
       <c r="B486">
         <v>-1</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="1">
-        <v>406</v>
+        <v>1263</v>
       </c>
       <c r="B487">
         <v>-1</v>
@@ -4275,15 +4275,15 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="1">
-        <v>464</v>
+        <v>5037</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="1">
-        <v>3772</v>
+        <v>3020</v>
       </c>
       <c r="B489">
         <v>-1</v>
@@ -4291,23 +4291,23 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="1">
-        <v>3685</v>
+        <v>2463</v>
       </c>
       <c r="B490">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="1">
-        <v>3759</v>
+        <v>5619</v>
       </c>
       <c r="B491">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="1">
-        <v>2900</v>
+        <v>2024</v>
       </c>
       <c r="B492">
         <v>-1</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="1">
-        <v>1497</v>
+        <v>4555</v>
       </c>
       <c r="B493">
         <v>-1</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="1">
-        <v>2270</v>
+        <v>5199</v>
       </c>
       <c r="B494">
         <v>-1</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="1">
-        <v>2914</v>
+        <v>3764</v>
       </c>
       <c r="B495">
         <v>-1</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="1">
-        <v>1865</v>
+        <v>4993</v>
       </c>
       <c r="B496">
         <v>-1</v>
@@ -4347,15 +4347,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="1">
-        <v>3402</v>
+        <v>1515</v>
       </c>
       <c r="B497">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="1">
-        <v>4308</v>
+        <v>126</v>
       </c>
       <c r="B498">
         <v>-1</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="1">
-        <v>3806</v>
+        <v>407</v>
       </c>
       <c r="B499">
         <v>-1</v>
@@ -4371,31 +4371,31 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="1">
-        <v>3461</v>
+        <v>466</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="1">
-        <v>5529</v>
+        <v>6051</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="1">
-        <v>3257</v>
+        <v>1433</v>
       </c>
       <c r="B502">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="1">
-        <v>4267</v>
+        <v>1192</v>
       </c>
       <c r="B503">
         <v>-1</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="1">
-        <v>3915</v>
+        <v>5561</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4411,23 +4411,23 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="1">
-        <v>2296</v>
+        <v>5065</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="1">
-        <v>3490</v>
+        <v>2287</v>
       </c>
       <c r="B506">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="1">
-        <v>2751</v>
+        <v>6172</v>
       </c>
       <c r="B507">
         <v>-1</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="1">
-        <v>2264</v>
+        <v>2151</v>
       </c>
       <c r="B508">
         <v>-1</v>
@@ -4443,23 +4443,23 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="1">
-        <v>2047</v>
+        <v>3982</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="1">
-        <v>6136</v>
+        <v>3085</v>
       </c>
       <c r="B510">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="1">
-        <v>1076</v>
+        <v>3762</v>
       </c>
       <c r="B511">
         <v>-1</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="1">
-        <v>1106</v>
+        <v>3008</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="1">
-        <v>1904</v>
+        <v>1695</v>
       </c>
       <c r="B513">
         <v>-1</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="1">
-        <v>3763</v>
+        <v>1132</v>
       </c>
       <c r="B514">
         <v>-1</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="1">
-        <v>841</v>
+        <v>5321</v>
       </c>
       <c r="B515">
         <v>-1</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="1">
-        <v>2159</v>
+        <v>2512</v>
       </c>
       <c r="B516">
         <v>-1</v>
@@ -4507,15 +4507,15 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="1">
-        <v>2069</v>
+        <v>2764</v>
       </c>
       <c r="B517">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="1">
-        <v>1544</v>
+        <v>2298</v>
       </c>
       <c r="B518">
         <v>-1</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="1">
-        <v>2966</v>
+        <v>2455</v>
       </c>
       <c r="B519">
         <v>-1</v>
@@ -4531,23 +4531,23 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="1">
-        <v>649</v>
+        <v>4042</v>
       </c>
       <c r="B520">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="1">
-        <v>2165</v>
+        <v>2032</v>
       </c>
       <c r="B521">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="1">
-        <v>2224</v>
+        <v>3084</v>
       </c>
       <c r="B522">
         <v>-1</v>
@@ -4555,15 +4555,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="1">
-        <v>4167</v>
+        <v>1469</v>
       </c>
       <c r="B523">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="1">
-        <v>914</v>
+        <v>1557</v>
       </c>
       <c r="B524">
         <v>-1</v>
@@ -4571,15 +4571,15 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="1">
-        <v>3436</v>
+        <v>2985</v>
       </c>
       <c r="B525">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="1">
-        <v>907</v>
+        <v>650</v>
       </c>
       <c r="B526">
         <v>-1</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="1">
-        <v>234</v>
+        <v>2475</v>
       </c>
       <c r="B527">
         <v>-1</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="1">
-        <v>4993</v>
+        <v>3523</v>
       </c>
       <c r="B528">
         <v>-1</v>
@@ -4603,15 +4603,15 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="1">
-        <v>4381</v>
+        <v>1181</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="1">
-        <v>1720</v>
+        <v>3296</v>
       </c>
       <c r="B530">
         <v>-1</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="1">
-        <v>166</v>
+        <v>3472</v>
       </c>
       <c r="B531">
         <v>-1</v>
@@ -4627,15 +4627,15 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="1">
-        <v>5699</v>
+        <v>924</v>
       </c>
       <c r="B532">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="1">
-        <v>375</v>
+        <v>235</v>
       </c>
       <c r="B533">
         <v>-1</v>
@@ -4643,23 +4643,23 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="1">
-        <v>3167</v>
+        <v>4380</v>
       </c>
       <c r="B534">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="1">
-        <v>5937</v>
+        <v>3357</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="1">
-        <v>4603</v>
+        <v>1408</v>
       </c>
       <c r="B536">
         <v>-1</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="1">
-        <v>4642</v>
+        <v>167</v>
       </c>
       <c r="B537">
         <v>-1</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="1">
-        <v>1172</v>
+        <v>2654</v>
       </c>
       <c r="B538">
         <v>-1</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="1">
-        <v>5786</v>
+        <v>377</v>
       </c>
       <c r="B539">
         <v>-1</v>
@@ -4691,23 +4691,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="1">
-        <v>3970</v>
+        <v>3252</v>
       </c>
       <c r="B540">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="1">
-        <v>1570</v>
+        <v>2061</v>
       </c>
       <c r="B541">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="1">
-        <v>5396</v>
+        <v>1712</v>
       </c>
       <c r="B542">
         <v>-1</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="1">
-        <v>519</v>
+        <v>2052</v>
       </c>
       <c r="B543">
         <v>-1</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="1">
-        <v>3775</v>
+        <v>3797</v>
       </c>
       <c r="B544">
         <v>-1</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="1">
-        <v>3250</v>
+        <v>5839</v>
       </c>
       <c r="B545">
         <v>-1</v>
@@ -4739,15 +4739,15 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="1">
-        <v>1507</v>
+        <v>3430</v>
       </c>
       <c r="B546">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="1">
-        <v>1947</v>
+        <v>3705</v>
       </c>
       <c r="B547">
         <v>-1</v>
@@ -4755,15 +4755,15 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="1">
-        <v>3174</v>
+        <v>2670</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="1">
-        <v>1268</v>
+        <v>521</v>
       </c>
       <c r="B549">
         <v>-1</v>
@@ -4771,15 +4771,15 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="1">
-        <v>3996</v>
+        <v>5606</v>
       </c>
       <c r="B550">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="1">
-        <v>5903</v>
+        <v>1827</v>
       </c>
       <c r="B551">
         <v>-1</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="1">
-        <v>6142</v>
+        <v>975</v>
       </c>
       <c r="B552">
         <v>-1</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="1">
-        <v>5606</v>
+        <v>1558</v>
       </c>
       <c r="B553">
         <v>-1</v>
@@ -4803,15 +4803,15 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="1">
-        <v>2944</v>
+        <v>2363</v>
       </c>
       <c r="B554">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="1">
-        <v>6061</v>
+        <v>5329</v>
       </c>
       <c r="B555">
         <v>-1</v>
@@ -4819,15 +4819,15 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="1">
-        <v>1629</v>
+        <v>3652</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="1">
-        <v>1100</v>
+        <v>5508</v>
       </c>
       <c r="B557">
         <v>-1</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="1">
-        <v>1689</v>
+        <v>4015</v>
       </c>
       <c r="B558">
         <v>-1</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="1">
-        <v>1506</v>
+        <v>1579</v>
       </c>
       <c r="B559">
         <v>-1</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="1">
-        <v>2362</v>
+        <v>4183</v>
       </c>
       <c r="B560">
         <v>-1</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="1">
-        <v>2285</v>
+        <v>4645</v>
       </c>
       <c r="B561">
         <v>-1</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="1">
-        <v>4434</v>
+        <v>3725</v>
       </c>
       <c r="B562">
         <v>-1</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="1">
-        <v>2728</v>
+        <v>2711</v>
       </c>
       <c r="B563">
         <v>-1</v>
@@ -4883,15 +4883,15 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="1">
-        <v>2708</v>
+        <v>857</v>
       </c>
       <c r="B564">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="1">
-        <v>2317</v>
+        <v>2858</v>
       </c>
       <c r="B565">
         <v>-1</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="1">
-        <v>3045</v>
+        <v>3277</v>
       </c>
       <c r="B566">
         <v>-1</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="1">
-        <v>5194</v>
+        <v>3968</v>
       </c>
       <c r="B567">
         <v>1</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="1">
-        <v>5946</v>
+        <v>1511</v>
       </c>
       <c r="B568">
         <v>-1</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="1">
-        <v>1769</v>
+        <v>6074</v>
       </c>
       <c r="B569">
         <v>-1</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="1">
-        <v>1786</v>
+        <v>2294</v>
       </c>
       <c r="B570">
         <v>-1</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="1">
-        <v>4213</v>
+        <v>2230</v>
       </c>
       <c r="B571">
         <v>-1</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="1">
-        <v>4048</v>
+        <v>5098</v>
       </c>
       <c r="B572">
         <v>-1</v>
@@ -4955,15 +4955,15 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="1">
-        <v>2003</v>
+        <v>5853</v>
       </c>
       <c r="B573">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="1">
-        <v>4553</v>
+        <v>4685</v>
       </c>
       <c r="B574">
         <v>-1</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="1">
-        <v>2684</v>
+        <v>2698</v>
       </c>
       <c r="B575">
         <v>-1</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="1">
-        <v>543</v>
+        <v>2147</v>
       </c>
       <c r="B576">
         <v>-1</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="1">
-        <v>1144</v>
+        <v>5971</v>
       </c>
       <c r="B577">
         <v>-1</v>
@@ -4995,23 +4995,23 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="1">
-        <v>5877</v>
+        <v>1785</v>
       </c>
       <c r="B578">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="1">
-        <v>4382</v>
+        <v>1190</v>
       </c>
       <c r="B579">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="1">
-        <v>2735</v>
+        <v>2358</v>
       </c>
       <c r="B580">
         <v>-1</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="1">
-        <v>4759</v>
+        <v>2267</v>
       </c>
       <c r="B581">
         <v>-1</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="1">
-        <v>4021</v>
+        <v>2582</v>
       </c>
       <c r="B582">
         <v>-1</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="1">
-        <v>3602</v>
+        <v>2021</v>
       </c>
       <c r="B583">
         <v>-1</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="1">
-        <v>4098</v>
+        <v>4661</v>
       </c>
       <c r="B584">
         <v>-1</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="1">
-        <v>1857</v>
+        <v>2229</v>
       </c>
       <c r="B585">
         <v>-1</v>
@@ -5059,15 +5059,15 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="1">
-        <v>2909</v>
+        <v>4797</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="1">
-        <v>274</v>
+        <v>542</v>
       </c>
       <c r="B587">
         <v>-1</v>
@@ -5075,15 +5075,15 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="1">
-        <v>4555</v>
+        <v>4592</v>
       </c>
       <c r="B588">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="1">
-        <v>2456</v>
+        <v>2857</v>
       </c>
       <c r="B589">
         <v>-1</v>
@@ -5091,15 +5091,15 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="1">
-        <v>1578</v>
+        <v>1692</v>
       </c>
       <c r="B590">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="1">
-        <v>4779</v>
+        <v>3403</v>
       </c>
       <c r="B591">
         <v>-1</v>
@@ -5107,23 +5107,23 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="1">
-        <v>1556</v>
+        <v>4782</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="1">
-        <v>1961</v>
+        <v>1498</v>
       </c>
       <c r="B593">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="1">
-        <v>3550</v>
+        <v>5097</v>
       </c>
       <c r="B594">
         <v>-1</v>
@@ -5131,15 +5131,15 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="1">
-        <v>5220</v>
+        <v>2825</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="1">
-        <v>266</v>
+        <v>2299</v>
       </c>
       <c r="B596">
         <v>-1</v>
@@ -5147,15 +5147,15 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="1">
-        <v>1337</v>
+        <v>2828</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="1">
-        <v>4248</v>
+        <v>275</v>
       </c>
       <c r="B598">
         <v>-1</v>
@@ -5163,15 +5163,15 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="1">
-        <v>518</v>
+        <v>4578</v>
       </c>
       <c r="B599">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="1">
-        <v>5971</v>
+        <v>1032</v>
       </c>
       <c r="B600">
         <v>-1</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="1">
-        <v>680</v>
+        <v>4976</v>
       </c>
       <c r="B601">
         <v>-1</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="1">
-        <v>3833</v>
+        <v>4657</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -5195,15 +5195,15 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="1">
-        <v>4788</v>
+        <v>3805</v>
       </c>
       <c r="B603">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="1">
-        <v>1197</v>
+        <v>5151</v>
       </c>
       <c r="B604">
         <v>-1</v>
@@ -5211,23 +5211,23 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="1">
-        <v>1845</v>
+        <v>3451</v>
       </c>
       <c r="B605">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="1">
-        <v>745</v>
+        <v>4551</v>
       </c>
       <c r="B606">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="1">
-        <v>1944</v>
+        <v>267</v>
       </c>
       <c r="B607">
         <v>-1</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="1">
-        <v>5824</v>
+        <v>5219</v>
       </c>
       <c r="B608">
         <v>-1</v>
@@ -5243,15 +5243,15 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="1">
-        <v>2295</v>
+        <v>4271</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="1">
-        <v>2988</v>
+        <v>519</v>
       </c>
       <c r="B610">
         <v>-1</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="1">
-        <v>2023</v>
+        <v>5244</v>
       </c>
       <c r="B611">
         <v>1</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="1">
-        <v>4287</v>
+        <v>682</v>
       </c>
       <c r="B612">
         <v>-1</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="1">
-        <v>2324</v>
+        <v>3963</v>
       </c>
       <c r="B613">
         <v>-1</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="1">
-        <v>505</v>
+        <v>2599</v>
       </c>
       <c r="B614">
         <v>-1</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="1">
-        <v>731</v>
+        <v>3191</v>
       </c>
       <c r="B615">
         <v>-1</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="1">
-        <v>864</v>
+        <v>1860</v>
       </c>
       <c r="B616">
         <v>-1</v>
@@ -5307,15 +5307,15 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="1">
-        <v>2462</v>
+        <v>747</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="1">
-        <v>2552</v>
+        <v>1960</v>
       </c>
       <c r="B618">
         <v>-1</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="1">
-        <v>2710</v>
+        <v>5462</v>
       </c>
       <c r="B619">
         <v>-1</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="1">
-        <v>2632</v>
+        <v>2311</v>
       </c>
       <c r="B620">
         <v>-1</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="1">
-        <v>3414</v>
+        <v>1631</v>
       </c>
       <c r="B621">
         <v>-1</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="1">
-        <v>93</v>
+        <v>1895</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="1">
-        <v>1120</v>
+        <v>3244</v>
       </c>
       <c r="B623">
         <v>-1</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="1">
-        <v>3180</v>
+        <v>2410</v>
       </c>
       <c r="B624">
         <v>-1</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="1">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="B625">
         <v>-1</v>
@@ -5379,15 +5379,15 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="1">
-        <v>5368</v>
+        <v>733</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="1">
-        <v>2226</v>
+        <v>865</v>
       </c>
       <c r="B627">
         <v>-1</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="1">
-        <v>3632</v>
+        <v>1970</v>
       </c>
       <c r="B628">
         <v>-1</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="1">
-        <v>1512</v>
+        <v>3906</v>
       </c>
       <c r="B629">
         <v>-1</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="1">
-        <v>5865</v>
+        <v>3224</v>
       </c>
       <c r="B630">
         <v>-1</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="1">
-        <v>4633</v>
+        <v>1480</v>
       </c>
       <c r="B631">
         <v>-1</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="1">
-        <v>345</v>
+        <v>4991</v>
       </c>
       <c r="B632">
         <v>-1</v>
@@ -5435,15 +5435,15 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="1">
-        <v>2520</v>
+        <v>94</v>
       </c>
       <c r="B633">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="1">
-        <v>1478</v>
+        <v>2804</v>
       </c>
       <c r="B634">
         <v>-1</v>
@@ -5451,15 +5451,15 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="1">
-        <v>139</v>
+        <v>1170</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="1">
-        <v>4025</v>
+        <v>402</v>
       </c>
       <c r="B636">
         <v>-1</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="1">
-        <v>5933</v>
+        <v>3672</v>
       </c>
       <c r="B637">
         <v>-1</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="1">
-        <v>2467</v>
+        <v>4972</v>
       </c>
       <c r="B638">
         <v>-1</v>
@@ -5483,15 +5483,15 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="1">
-        <v>2042</v>
+        <v>2450</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="1">
-        <v>1833</v>
+        <v>4141</v>
       </c>
       <c r="B640">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="1">
-        <v>687</v>
+        <v>1294</v>
       </c>
       <c r="B641">
         <v>-1</v>
@@ -5507,15 +5507,15 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="1">
-        <v>5100</v>
+        <v>1999</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="1">
-        <v>5774</v>
+        <v>1268</v>
       </c>
       <c r="B643">
         <v>-1</v>
@@ -5523,15 +5523,15 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="1">
-        <v>3761</v>
+        <v>1100</v>
       </c>
       <c r="B644">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="1">
-        <v>5683</v>
+        <v>346</v>
       </c>
       <c r="B645">
         <v>-1</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="1">
-        <v>5610</v>
+        <v>3585</v>
       </c>
       <c r="B646">
         <v>-1</v>
@@ -5547,15 +5547,15 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="1">
-        <v>5105</v>
+        <v>2661</v>
       </c>
       <c r="B647">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="1">
-        <v>2455</v>
+        <v>140</v>
       </c>
       <c r="B648">
         <v>1</v>
@@ -5563,7 +5563,7 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="1">
-        <v>5592</v>
+        <v>1672</v>
       </c>
       <c r="B649">
         <v>-1</v>
@@ -5571,31 +5571,31 @@
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="1">
-        <v>6044</v>
+        <v>3887</v>
       </c>
       <c r="B650">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="1">
-        <v>2045</v>
+        <v>1776</v>
       </c>
       <c r="B651">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="1">
-        <v>444</v>
+        <v>2057</v>
       </c>
       <c r="B652">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="1">
-        <v>429</v>
+        <v>3690</v>
       </c>
       <c r="B653">
         <v>-1</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="1">
-        <v>3820</v>
+        <v>689</v>
       </c>
       <c r="B654">
         <v>-1</v>
@@ -5611,15 +5611,15 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="1">
-        <v>946</v>
+        <v>5123</v>
       </c>
       <c r="B655">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="1">
-        <v>2526</v>
+        <v>5493</v>
       </c>
       <c r="B656">
         <v>-1</v>
@@ -5627,31 +5627,31 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="1">
-        <v>2984</v>
+        <v>4573</v>
       </c>
       <c r="B657">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="1">
-        <v>2852</v>
+        <v>3280</v>
       </c>
       <c r="B658">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="1">
-        <v>2963</v>
+        <v>2748</v>
       </c>
       <c r="B659">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="1">
-        <v>672</v>
+        <v>5128</v>
       </c>
       <c r="B660">
         <v>-1</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="1">
-        <v>5634</v>
+        <v>3965</v>
       </c>
       <c r="B661">
         <v>-1</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="1">
-        <v>2387</v>
+        <v>3607</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="1">
-        <v>790</v>
+        <v>2264</v>
       </c>
       <c r="B663">
         <v>-1</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="1">
-        <v>1554</v>
+        <v>5094</v>
       </c>
       <c r="B664">
         <v>-1</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="1">
-        <v>5388</v>
+        <v>446</v>
       </c>
       <c r="B665">
         <v>-1</v>
@@ -5699,15 +5699,15 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="1">
-        <v>1591</v>
+        <v>431</v>
       </c>
       <c r="B666">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="1">
-        <v>775</v>
+        <v>4718</v>
       </c>
       <c r="B667">
         <v>-1</v>
@@ -5715,15 +5715,15 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="1">
-        <v>1932</v>
+        <v>948</v>
       </c>
       <c r="B668">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="1">
-        <v>1488</v>
+        <v>2838</v>
       </c>
       <c r="B669">
         <v>-1</v>
@@ -5731,39 +5731,39 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="1">
-        <v>850</v>
+        <v>2101</v>
       </c>
       <c r="B670">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="1">
-        <v>858</v>
+        <v>3926</v>
       </c>
       <c r="B671">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="1">
-        <v>1702</v>
+        <v>1272</v>
       </c>
       <c r="B672">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="1">
-        <v>919</v>
+        <v>2506</v>
       </c>
       <c r="B673">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="1">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="B674">
         <v>-1</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="1">
-        <v>2306</v>
+        <v>4143</v>
       </c>
       <c r="B675">
         <v>-1</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="1">
-        <v>341</v>
+        <v>3600</v>
       </c>
       <c r="B676">
         <v>-1</v>
@@ -5787,15 +5787,15 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="1">
-        <v>2791</v>
+        <v>788</v>
       </c>
       <c r="B677">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="1">
-        <v>2088</v>
+        <v>4444</v>
       </c>
       <c r="B678">
         <v>-1</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="1">
-        <v>4864</v>
+        <v>5410</v>
       </c>
       <c r="B679">
         <v>-1</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="1">
-        <v>4670</v>
+        <v>4240</v>
       </c>
       <c r="B680">
         <v>-1</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="1">
-        <v>5847</v>
+        <v>777</v>
       </c>
       <c r="B681">
         <v>-1</v>
@@ -5827,31 +5827,31 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="1">
-        <v>2050</v>
+        <v>3299</v>
       </c>
       <c r="B682">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="1">
-        <v>5020</v>
+        <v>1782</v>
       </c>
       <c r="B683">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="1">
-        <v>5845</v>
+        <v>849</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="1">
-        <v>2029</v>
+        <v>860</v>
       </c>
       <c r="B685">
         <v>-1</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="1">
-        <v>3869</v>
+        <v>3669</v>
       </c>
       <c r="B686">
         <v>-1</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="1">
-        <v>2783</v>
+        <v>919</v>
       </c>
       <c r="B687">
         <v>-1</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="1">
-        <v>5785</v>
+        <v>695</v>
       </c>
       <c r="B688">
         <v>-1</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="1">
-        <v>1726</v>
+        <v>2646</v>
       </c>
       <c r="B689">
         <v>-1</v>
@@ -5891,15 +5891,15 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="1">
-        <v>2744</v>
+        <v>342</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="1">
-        <v>1868</v>
+        <v>2975</v>
       </c>
       <c r="B691">
         <v>-1</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="1">
-        <v>1386</v>
+        <v>1135</v>
       </c>
       <c r="B692">
         <v>-1</v>
@@ -5915,15 +5915,15 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="1">
-        <v>2802</v>
+        <v>4887</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="1">
-        <v>1740</v>
+        <v>2947</v>
       </c>
       <c r="B694">
         <v>-1</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="1">
-        <v>1574</v>
+        <v>5871</v>
       </c>
       <c r="B695">
         <v>-1</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="1">
-        <v>883</v>
+        <v>1817</v>
       </c>
       <c r="B696">
         <v>-1</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="1">
-        <v>4247</v>
+        <v>5043</v>
       </c>
       <c r="B697">
         <v>-1</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="1">
-        <v>2707</v>
+        <v>3790</v>
       </c>
       <c r="B698">
         <v>-1</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="1">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="B699">
         <v>-1</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="1">
-        <v>2863</v>
+        <v>3889</v>
       </c>
       <c r="B700">
         <v>-1</v>
@@ -5979,15 +5979,15 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="1">
-        <v>1939</v>
+        <v>3839</v>
       </c>
       <c r="B701">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="1">
-        <v>5894</v>
+        <v>2759</v>
       </c>
       <c r="B702">
         <v>-1</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="1">
-        <v>1179</v>
+        <v>3209</v>
       </c>
       <c r="B703">
         <v>-1</v>
@@ -6003,15 +6003,15 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="1">
-        <v>4421</v>
+        <v>6134</v>
       </c>
       <c r="B704">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="1">
-        <v>2084</v>
+        <v>1309</v>
       </c>
       <c r="B705">
         <v>1</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="1">
-        <v>388</v>
+        <v>3271</v>
       </c>
       <c r="B706">
         <v>-1</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="1">
-        <v>3423</v>
+        <v>3756</v>
       </c>
       <c r="B707">
         <v>-1</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="1">
-        <v>4402</v>
+        <v>1756</v>
       </c>
       <c r="B708">
         <v>-1</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="1">
-        <v>3225</v>
+        <v>4205</v>
       </c>
       <c r="B709">
         <v>-1</v>
@@ -6051,23 +6051,23 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="1">
-        <v>5378</v>
+        <v>885</v>
       </c>
       <c r="B710">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="1">
-        <v>987</v>
+        <v>3081</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="1">
-        <v>2525</v>
+        <v>3201</v>
       </c>
       <c r="B712">
         <v>-1</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="1">
-        <v>1576</v>
+        <v>0</v>
       </c>
       <c r="B713">
         <v>-1</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="1">
-        <v>5340</v>
+        <v>1535</v>
       </c>
       <c r="B714">
         <v>-1</v>
@@ -6091,15 +6091,15 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="1">
-        <v>270</v>
+        <v>1542</v>
       </c>
       <c r="B715">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="1">
-        <v>435</v>
+        <v>5922</v>
       </c>
       <c r="B716">
         <v>-1</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="1">
-        <v>1520</v>
+        <v>1197</v>
       </c>
       <c r="B717">
         <v>-1</v>
@@ -6115,15 +6115,15 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="1">
-        <v>2479</v>
+        <v>3333</v>
       </c>
       <c r="B718">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="1">
-        <v>1838</v>
+        <v>5116</v>
       </c>
       <c r="B719">
         <v>-1</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="1">
-        <v>3683</v>
+        <v>390</v>
       </c>
       <c r="B720">
         <v>-1</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="1">
-        <v>3424</v>
+        <v>4085</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="1">
-        <v>1821</v>
+        <v>1707</v>
       </c>
       <c r="B722">
         <v>-1</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="1">
-        <v>1040</v>
+        <v>3247</v>
       </c>
       <c r="B723">
         <v>-1</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="1">
-        <v>4137</v>
+        <v>1336</v>
       </c>
       <c r="B724">
         <v>-1</v>
@@ -6171,15 +6171,15 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="1">
-        <v>662</v>
+        <v>986</v>
       </c>
       <c r="B725">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="1">
-        <v>2453</v>
+        <v>2545</v>
       </c>
       <c r="B726">
         <v>-1</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="1">
-        <v>340</v>
+        <v>4603</v>
       </c>
       <c r="B727">
         <v>-1</v>
@@ -6195,31 +6195,31 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="1">
-        <v>2528</v>
+        <v>1676</v>
       </c>
       <c r="B728">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="1">
-        <v>4958</v>
+        <v>271</v>
       </c>
       <c r="B729">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="1">
-        <v>3229</v>
+        <v>436</v>
       </c>
       <c r="B730">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="1">
-        <v>5837</v>
+        <v>1768</v>
       </c>
       <c r="B731">
         <v>-1</v>
@@ -6227,15 +6227,15 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="1">
-        <v>1133</v>
+        <v>1629</v>
       </c>
       <c r="B732">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="1">
-        <v>3198</v>
+        <v>2494</v>
       </c>
       <c r="B733">
         <v>-1</v>
@@ -6243,15 +6243,15 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="1">
-        <v>1091</v>
+        <v>1222</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="1">
-        <v>6071</v>
+        <v>3966</v>
       </c>
       <c r="B735">
         <v>-1</v>
@@ -6259,15 +6259,15 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="1">
-        <v>3384</v>
+        <v>3067</v>
       </c>
       <c r="B736">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="1">
-        <v>3776</v>
+        <v>1042</v>
       </c>
       <c r="B737">
         <v>-1</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="1">
-        <v>705</v>
+        <v>3053</v>
       </c>
       <c r="B738">
         <v>-1</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="1">
-        <v>2899</v>
+        <v>659</v>
       </c>
       <c r="B739">
         <v>1</v>
@@ -6291,23 +6291,23 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="1">
-        <v>589</v>
+        <v>3854</v>
       </c>
       <c r="B740">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="1">
-        <v>3354</v>
+        <v>341</v>
       </c>
       <c r="B741">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="1">
-        <v>2508</v>
+        <v>2554</v>
       </c>
       <c r="B742">
         <v>-1</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="1">
-        <v>3413</v>
+        <v>2361</v>
       </c>
       <c r="B743">
         <v>-1</v>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="1">
-        <v>684</v>
+        <v>1143</v>
       </c>
       <c r="B744">
         <v>-1</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="1">
-        <v>1169</v>
+        <v>5978</v>
       </c>
       <c r="B745">
         <v>-1</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="1">
-        <v>581</v>
+        <v>6091</v>
       </c>
       <c r="B746">
         <v>-1</v>
@@ -6347,31 +6347,31 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="1">
-        <v>4758</v>
+        <v>3192</v>
       </c>
       <c r="B747">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="1">
-        <v>3235</v>
+        <v>1092</v>
       </c>
       <c r="B748">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="1">
-        <v>1193</v>
+        <v>1848</v>
       </c>
       <c r="B749">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="1">
-        <v>1051</v>
+        <v>1920</v>
       </c>
       <c r="B750">
         <v>-1</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="1">
-        <v>3171</v>
+        <v>3606</v>
       </c>
       <c r="B751">
         <v>-1</v>
@@ -6387,23 +6387,23 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="1">
-        <v>977</v>
+        <v>706</v>
       </c>
       <c r="B752">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="1">
-        <v>2321</v>
+        <v>5995</v>
       </c>
       <c r="B753">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="1">
-        <v>2472</v>
+        <v>591</v>
       </c>
       <c r="B754">
         <v>-1</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="1">
-        <v>4232</v>
+        <v>1810</v>
       </c>
       <c r="B755">
         <v>-1</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="1">
-        <v>2114</v>
+        <v>4943</v>
       </c>
       <c r="B756">
         <v>-1</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="1">
-        <v>4349</v>
+        <v>4051</v>
       </c>
       <c r="B757">
         <v>-1</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="1">
-        <v>5752</v>
+        <v>686</v>
       </c>
       <c r="B758">
         <v>-1</v>
@@ -6443,7 +6443,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="1">
-        <v>5458</v>
+        <v>2447</v>
       </c>
       <c r="B759">
         <v>-1</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="1">
-        <v>387</v>
+        <v>580</v>
       </c>
       <c r="B760">
         <v>-1</v>
@@ -6459,10 +6459,34 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="1">
-        <v>6151</v>
+        <v>4781</v>
       </c>
       <c r="B761">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="1">
+        <v>3256</v>
+      </c>
+      <c r="B762">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="1">
+        <v>3660</v>
+      </c>
+      <c r="B763">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B764">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
